--- a/交流管理/项目日报/每日要做的事-徐明曦.xlsx
+++ b/交流管理/项目日报/每日要做的事-徐明曦.xlsx
@@ -198,7 +198,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,15 @@
   <si>
     <t>事情</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>docker部署相关知识学习</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>任务，开始实施部署。了解部署步骤。</t>
   </si>
 </sst>
 </file>
@@ -644,7 +653,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,7 +718,18 @@
       <c r="A8" s="1">
         <v>43000</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">

--- a/交流管理/项目日报/每日要做的事-徐明曦.xlsx
+++ b/交流管理/项目日报/每日要做的事-徐明曦.xlsx
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>事情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>docker部署相关知识学习</t>
   </si>
   <si>
@@ -251,6 +247,10 @@
   </si>
   <si>
     <t>任务，开始实施部署。了解部署步骤。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">事情 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -653,7 +653,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -719,16 +719,16 @@
         <v>43000</v>
       </c>
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
       </c>
       <c r="D8" s="2">
         <v>0.55000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
